--- a/resources/views/product/pdimport.xlsx
+++ b/resources/views/product/pdimport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_laravel\htdocs\hoisst\resources\views\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3BA4EE-45E8-40C3-807B-243890F64C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E6E17-1C14-4577-85E7-BC27DDBB6EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A997259-46FA-40AC-BAA9-C96B7B910653}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Weeks</t>
   </si>
   <si>
-    <t>Jaggery</t>
-  </si>
-  <si>
     <t>Kgm</t>
   </si>
   <si>
@@ -114,15 +111,6 @@
     <t>Trading</t>
   </si>
   <si>
-    <t>Turmeric</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Own</t>
   </si>
   <si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>margin</t>
+  </si>
+  <si>
+    <t>frieditems</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>Fixed p</t>
   </si>
 </sst>
 </file>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA3F183-4C58-4DFB-B14C-146EEBD788D3}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +558,10 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>14</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -614,15 +614,15 @@
         <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
       </c>
       <c r="C3">
         <v>124554</v>
@@ -631,10 +631,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="O3">
+        <v>55</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
       </c>
       <c r="Q3">
         <v>95</v>
@@ -643,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T3">
         <v>4</v>
@@ -652,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
